--- a/BTT_Template.xlsx
+++ b/BTT_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamueller\PycharmProjects\btt_concat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5A2B5-8A87-4E86-AE1C-0EC58034CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705094D6-4AAA-485E-9202-2A8B7D7281DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67320" yWindow="4770" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="8" r:id="rId1"/>
@@ -2646,7 +2646,106 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2873,8 +2972,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilprojekte"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kürzel"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Anfangszeile" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Endzeile" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Anfangszeile" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Endzeile" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2921,7 +3020,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BTT" displayName="BTT" ref="A2:AT530" totalsRowShown="0" headerRowDxfId="24" dataCellStyle="Standard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BTT" displayName="BTT" ref="A2:AT530" totalsRowShown="0" headerRowDxfId="38" dataCellStyle="Standard">
   <autoFilter ref="A2:AT530" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Lfd Nr._x000a_(automatisch)" dataCellStyle="Standard"/>
@@ -2991,7 +3090,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hauptprozess"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ARIS-ID"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Verantwortliches TP"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="verwendet in BTT" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="verwendet in BTT" dataDxfId="37">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
 (Pflichtauswahl)],1,FALSE)),"nein","ja")</calculatedColumnFormula>
     </tableColumn>
@@ -3010,10 +3109,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Subprozess"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ARIS-ID"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Zugeordneter Hauptprozess"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="TP aus Hauptprozess" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="TP aus Hauptprozess" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="verwendet in BTT" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="verwendet in BTT" dataDxfId="35">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
 (optionale Auswahl)],1,FALSE)),"nein","ja")</calculatedColumnFormula>
     </tableColumn>
@@ -3056,9 +3155,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Transaktionen"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Langtext"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Modul"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Anzahl Nutzungen (2022+2023)" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Anzahl Nutzungen (2022+2023)" dataDxfId="34"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Tasktyp"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="verwendet in BTT" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="verwendet in BTT" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Bemerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3071,7 +3170,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Formularbezeichnung"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Formularname (technisch)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="verwendet in BTT" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="verwendet in BTT" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3088,8 +3187,8 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Namespace"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SenderServiceInterface"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Receiver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Wo ist Mandant 100" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="erzeugter Name" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Wo ist Mandant 100" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="erzeugter Name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3104,7 +3203,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Schnittstelle"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Beschreibung System"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="verwendet in BTT" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="verwendet in BTT" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3119,7 +3218,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Module"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Bezeichnung"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Modul in Transaktionen" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Modul in Transaktionen" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3799,76 +3898,6 @@
     <mergeCell ref="E1:Z1"/>
     <mergeCell ref="AK1:AT1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B530">
-    <cfRule type="expression" dxfId="13" priority="24">
-      <formula>ISBLANK(B3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D530 H3:I530 O3:O530 T3:T530 X3:X530 Z3:Z530 AD3:AD530 AI3:AJ530">
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>ISBLANK(D3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:V530">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>AND(ISBLANK(U3),T3="SAP-Formular")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W530">
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>AND(ISBLANK(W3),OR(T3="Mail",T3="XML",T3="weiterer"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA530">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>AND(ISBLANK(AA3),NOT(ISBLANK(I3)),LEFT(I3,1)="Z")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB530">
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>AND(ISBLANK(AB3),NOT(ISBLANK(I3)),LEFT(I3,1)&lt;&gt;"Z")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE273 AE292:AE530">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(ISBLANK(AE3),AB3="ja")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE274:AE291">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>ISBLANK(AE274)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF307 AF310:AF321 AF326 AF331:AF333 AF335:AF530">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>AND(ISBLANK(AF3),AD3="Fiori")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF308:AF309">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>ISBLANK(AF308)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF322:AF325">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>ISBLANK(AF322)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF327:AF330">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>ISBLANK(AF327)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG530">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>AND(ISBLANK(AG3),NOT(ISBLANK(M3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH530">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(ISBLANK(AH3),NOT(ISBLANK(R3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B530" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hauptprozess</formula1>
@@ -6528,7 +6557,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:G4278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -19512,8 +19541,8 @@
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19575,6 +19604,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </DokumenteTeilen_x0020__x002d__x0020_Berechtigungen>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C17858E2359B24DBC2C956CBC58571A" ma:contentTypeVersion="23" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2500c3fdc20045965f25a0a7c11fd3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3d735070-d042-4b9b-adb1-ed729648994d" xmlns:ns3="079a195e-b63e-432e-9525-85ffc651ce0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b8bdc2aec7392572213476c7d3400a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19865,21 +19909,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </DokumenteTeilen_x0020__x002d__x0020_Berechtigungen>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
   <ds:schemaRefs>
@@ -19889,6 +19918,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d735070-d042-4b9b-adb1-ed729648994d"/>
+    <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3B6455-98BE-4DD6-ACF3-BBC2A457E6E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19906,15 +19946,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d735070-d042-4b9b-adb1-ed729648994d"/>
-    <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BTT_Template.xlsx
+++ b/BTT_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamueller\PycharmProjects\btt_concat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705094D6-4AAA-485E-9202-2A8B7D7281DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64002B5C-7864-4A6A-9A3F-5C4B9E725179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67320" yWindow="4770" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="8" r:id="rId1"/>
@@ -576,24 +576,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="391">
-  <si>
-    <t>FI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>Qualitätssicherung</t>
-  </si>
-  <si>
-    <t>IH</t>
-  </si>
-  <si>
-    <t>BLQ</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>PS/IM</t>
   </si>
   <si>
     <t>Discover-Phase: Zuordnung Ist-Transaktion zu Hauptprozess und Anreichern Informationen bis 11/2023</t>
@@ -1383,36 +1368,6 @@
     </r>
   </si>
   <si>
-    <t>Stammdatenpflege durchführen</t>
-  </si>
-  <si>
-    <t>Abrechnung &amp; Faktura im IS-U</t>
-  </si>
-  <si>
-    <t>Ablesevorbereitung</t>
-  </si>
-  <si>
-    <t>Abrechnungsdurchführung</t>
-  </si>
-  <si>
-    <t>Abrechnung &amp; Faktura im SD/Service</t>
-  </si>
-  <si>
-    <t>Auszug durchführen</t>
-  </si>
-  <si>
-    <t>Serviceauftrag für Nebenleistungen bearbeiten</t>
-  </si>
-  <si>
-    <t>Ablesung</t>
-  </si>
-  <si>
-    <t>Zählerstandserfassung</t>
-  </si>
-  <si>
-    <t>Umzug durchführen</t>
-  </si>
-  <si>
     <t>Hauptprozess</t>
   </si>
   <si>
@@ -1432,879 +1387,6 @@
   </si>
   <si>
     <t>TP aus Hauptprozess</t>
-  </si>
-  <si>
-    <t>Bedarfsanalyse, -ermittlung und Assetmanagement</t>
-  </si>
-  <si>
-    <t>HANA0110</t>
-  </si>
-  <si>
-    <t>Simulationsmodelle (Assetsimulation) entwickeln</t>
-  </si>
-  <si>
-    <t>HANA011001</t>
-  </si>
-  <si>
-    <t>Investitionsplanung</t>
-  </si>
-  <si>
-    <t>HANA0120</t>
-  </si>
-  <si>
-    <t>Energiecontrolling</t>
-  </si>
-  <si>
-    <t>HANA011002</t>
-  </si>
-  <si>
-    <t>Planung Werke</t>
-  </si>
-  <si>
-    <t>HANA0121</t>
-  </si>
-  <si>
-    <t>Bedarfsanmeldung</t>
-  </si>
-  <si>
-    <t>HANA011003</t>
-  </si>
-  <si>
-    <t>Bauausführung und -überwachung Werke</t>
-  </si>
-  <si>
-    <t>HANA0122</t>
-  </si>
-  <si>
-    <t>Bedarfsbewertung und Freigabe</t>
-  </si>
-  <si>
-    <t>HANA011004</t>
-  </si>
-  <si>
-    <t>Abnahme und Inbetriebnahme Werke</t>
-  </si>
-  <si>
-    <t>HANA0123</t>
-  </si>
-  <si>
-    <t>Aufgabenstellung</t>
-  </si>
-  <si>
-    <t>HANA011005</t>
-  </si>
-  <si>
-    <t>Bauvorbereitung / Planung Netze</t>
-  </si>
-  <si>
-    <t>HANA0124</t>
-  </si>
-  <si>
-    <t>Wirtschaftlichkeit für Investitionen betrachten</t>
-  </si>
-  <si>
-    <t>HANA012001</t>
-  </si>
-  <si>
-    <t>Baudurchführung Netze</t>
-  </si>
-  <si>
-    <t>HANA0125</t>
-  </si>
-  <si>
-    <t>Investitionsplan erstellen</t>
-  </si>
-  <si>
-    <t>HANA012002</t>
-  </si>
-  <si>
-    <t>Bauabnahme Netze</t>
-  </si>
-  <si>
-    <t>HANA0126</t>
-  </si>
-  <si>
-    <t>Investitionsprognose erstellen</t>
-  </si>
-  <si>
-    <t>HANA012003</t>
-  </si>
-  <si>
-    <t>Projektinitiierung Werke</t>
-  </si>
-  <si>
-    <t>HANA0127</t>
-  </si>
-  <si>
-    <t>Investitionen controllen</t>
-  </si>
-  <si>
-    <t>HANA012004</t>
-  </si>
-  <si>
-    <t>Flächenmanagement</t>
-  </si>
-  <si>
-    <t>HANA0130</t>
-  </si>
-  <si>
-    <t>Vorplanung</t>
-  </si>
-  <si>
-    <t>HANA012101</t>
-  </si>
-  <si>
-    <t>Abwasserdruckleitungen instandsetzen</t>
-  </si>
-  <si>
-    <t>HANA0140</t>
-  </si>
-  <si>
-    <t>Entwurfsplanung</t>
-  </si>
-  <si>
-    <t>HANA012102</t>
-  </si>
-  <si>
-    <t>Kanalnetz instandhalten</t>
-  </si>
-  <si>
-    <t>HANA0141</t>
-  </si>
-  <si>
-    <t>Genehmigungsplanung</t>
-  </si>
-  <si>
-    <t>HANA012103</t>
-  </si>
-  <si>
-    <t>Rohrnetz instandhalten</t>
-  </si>
-  <si>
-    <t>HANA0142</t>
-  </si>
-  <si>
-    <t>Ausführungsplanung</t>
-  </si>
-  <si>
-    <t>HANA012104</t>
-  </si>
-  <si>
-    <t>Wartungsplanung erstellen</t>
-  </si>
-  <si>
-    <t>HANA0150</t>
-  </si>
-  <si>
-    <t>Stundenbuchung Bauleitung</t>
-  </si>
-  <si>
-    <t>HANA012201</t>
-  </si>
-  <si>
-    <t>Stammdatenpflege technische Objekte durchführen</t>
-  </si>
-  <si>
-    <t>HANA0151</t>
-  </si>
-  <si>
-    <t>Kosten- und Terminsteuerung</t>
-  </si>
-  <si>
-    <t>HANA012202</t>
-  </si>
-  <si>
-    <t>Zeitrückmeldungen verwalten</t>
-  </si>
-  <si>
-    <t>HANA0152</t>
-  </si>
-  <si>
-    <t>techn. Reporting Investitionen</t>
-  </si>
-  <si>
-    <t>HANA012203</t>
-  </si>
-  <si>
-    <t>Störung beseitigen</t>
-  </si>
-  <si>
-    <t>HANA0160</t>
-  </si>
-  <si>
-    <t>Auftragsanmeldung vom Betreiber</t>
-  </si>
-  <si>
-    <t>HANA012401</t>
-  </si>
-  <si>
-    <t>wiederkehrende Maßnahme durchführen</t>
-  </si>
-  <si>
-    <t>HANA0161</t>
-  </si>
-  <si>
-    <t>Auftragseingang und Registrierung</t>
-  </si>
-  <si>
-    <t>HANA012402</t>
-  </si>
-  <si>
-    <t>geplante Außerbetriebnahme und Instandsetzung durchführen</t>
-  </si>
-  <si>
-    <t>HANA0163</t>
-  </si>
-  <si>
-    <t>Bauvorbereitung</t>
-  </si>
-  <si>
-    <t>HANA012403</t>
-  </si>
-  <si>
-    <t>Zuarbeit zur Investitionsmaßnahme leisten</t>
-  </si>
-  <si>
-    <t>HANA0164</t>
-  </si>
-  <si>
-    <t>Baufortschrittsdokumentation</t>
-  </si>
-  <si>
-    <t>HANA012501</t>
-  </si>
-  <si>
-    <t>Instandsetzung aus Wartungsplan durchführen</t>
-  </si>
-  <si>
-    <t>HANA0165</t>
-  </si>
-  <si>
-    <t>Entsorgungsnachweise</t>
-  </si>
-  <si>
-    <t>HANA012502</t>
-  </si>
-  <si>
-    <t>Kalibrierung durchführen</t>
-  </si>
-  <si>
-    <t>HANA0166</t>
-  </si>
-  <si>
-    <t>Interimsleitungsbau</t>
-  </si>
-  <si>
-    <t>HANA012503</t>
-  </si>
-  <si>
-    <t>Aufarbeitungsauftrag durchführen</t>
-  </si>
-  <si>
-    <t>HANA0167</t>
-  </si>
-  <si>
-    <t>Neubau der Leitung</t>
-  </si>
-  <si>
-    <t>HANA012504</t>
-  </si>
-  <si>
-    <t>Laborleistungen durchführen</t>
-  </si>
-  <si>
-    <t>HANA0168</t>
-  </si>
-  <si>
-    <t>Oberflächenherstellung und Deckenschluss</t>
-  </si>
-  <si>
-    <t>HANA012505</t>
-  </si>
-  <si>
-    <t>Tätigkeitsmeldung erfassen</t>
-  </si>
-  <si>
-    <t>HANA0169</t>
-  </si>
-  <si>
-    <t>Abnahma nach VOB</t>
-  </si>
-  <si>
-    <t>HANA012601</t>
-  </si>
-  <si>
-    <t>Instandhaltungsreporting</t>
-  </si>
-  <si>
-    <t>HANA0170</t>
-  </si>
-  <si>
-    <t>Amaturenkontrolle und Schilderdienst</t>
-  </si>
-  <si>
-    <t>HANA012602</t>
-  </si>
-  <si>
-    <t>Dokumentation/Archivierung</t>
-  </si>
-  <si>
-    <t>HANA0180</t>
-  </si>
-  <si>
-    <t>Abnahme der Baufirmen</t>
-  </si>
-  <si>
-    <t>HANA012603</t>
-  </si>
-  <si>
-    <t>Gewährleistungsabwicklung</t>
-  </si>
-  <si>
-    <t>HANA0190</t>
-  </si>
-  <si>
-    <t>Vermessungsunterlagen</t>
-  </si>
-  <si>
-    <t>HANA012604</t>
-  </si>
-  <si>
-    <t>Anlagenzugang</t>
-  </si>
-  <si>
-    <t>HANA0210</t>
-  </si>
-  <si>
-    <t>Auftragsanmeldung vom Betreiber Werke</t>
-  </si>
-  <si>
-    <t>HANA012701</t>
-  </si>
-  <si>
-    <t>Anlagen umsetzen</t>
-  </si>
-  <si>
-    <t>HANA0220</t>
-  </si>
-  <si>
-    <t>Auftragseingang und Registrierung Werke</t>
-  </si>
-  <si>
-    <t>HANA012702</t>
-  </si>
-  <si>
-    <t>Anlagenabgang</t>
-  </si>
-  <si>
-    <t>HANA0230</t>
-  </si>
-  <si>
-    <t>Auftragsbestätigung Werke</t>
-  </si>
-  <si>
-    <t>HANA012703</t>
-  </si>
-  <si>
-    <t>Anlageninventur</t>
-  </si>
-  <si>
-    <t>HANA0240</t>
-  </si>
-  <si>
-    <t>Einzug durchführen</t>
-  </si>
-  <si>
-    <t>HANA013001</t>
-  </si>
-  <si>
-    <t>Reporting Anlagenmanagement</t>
-  </si>
-  <si>
-    <t>HANA0250</t>
-  </si>
-  <si>
-    <t>HANA013002</t>
-  </si>
-  <si>
-    <t>Vertrieb vorbereiten</t>
-  </si>
-  <si>
-    <t>HANA0310</t>
-  </si>
-  <si>
-    <t>HANA013003</t>
-  </si>
-  <si>
-    <t>Anfrage bearbeiten</t>
-  </si>
-  <si>
-    <t>HANA0320</t>
-  </si>
-  <si>
-    <t>Kontingentberechnung</t>
-  </si>
-  <si>
-    <t>HANA013004</t>
-  </si>
-  <si>
-    <t>Angebot erstellen</t>
-  </si>
-  <si>
-    <t>HANA0330</t>
-  </si>
-  <si>
-    <t>HANA013005</t>
-  </si>
-  <si>
-    <t>Vertrag schließen</t>
-  </si>
-  <si>
-    <t>HANA0340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plansynchronisation </t>
-  </si>
-  <si>
-    <t>HANA013006</t>
-  </si>
-  <si>
-    <t>Vertriebsauftrag für Nebenleistungen im SD bearbeiten</t>
-  </si>
-  <si>
-    <t>HANA0350</t>
-  </si>
-  <si>
-    <t>Wartungsstrategien erstellen</t>
-  </si>
-  <si>
-    <t>HANA015001</t>
-  </si>
-  <si>
-    <t>HANA0351</t>
-  </si>
-  <si>
-    <t>Anleitung erstellen / bearbeiten</t>
-  </si>
-  <si>
-    <t>HANA015002</t>
-  </si>
-  <si>
-    <t>HANA0360</t>
-  </si>
-  <si>
-    <t>Wartungsplan/-position erstellen / bearbeiten</t>
-  </si>
-  <si>
-    <t>HANA015003</t>
-  </si>
-  <si>
-    <t>Buchung &amp; Forderungsrealisierung Nebenleistung</t>
-  </si>
-  <si>
-    <t>HANA0370</t>
-  </si>
-  <si>
-    <t>Wartungsplan terminieren</t>
-  </si>
-  <si>
-    <t>HANA015004</t>
-  </si>
-  <si>
-    <t>Vertriebs- und Produktcontrolling</t>
-  </si>
-  <si>
-    <t>HANA0380</t>
-  </si>
-  <si>
-    <t>technisches Objekt anlegen</t>
-  </si>
-  <si>
-    <t>HANA015101</t>
-  </si>
-  <si>
-    <t>Bestellanforderung</t>
-  </si>
-  <si>
-    <t>HANA0410</t>
-  </si>
-  <si>
-    <t>technisches Objekt ändern</t>
-  </si>
-  <si>
-    <t>HANA015102</t>
-  </si>
-  <si>
-    <t>Leistungsstammsatz verwenden</t>
-  </si>
-  <si>
-    <t>HANA0411</t>
-  </si>
-  <si>
-    <t>technisches Objekt löschen</t>
-  </si>
-  <si>
-    <t>HANA015103</t>
-  </si>
-  <si>
-    <t>Katalogmanagement</t>
-  </si>
-  <si>
-    <t>HANA0420</t>
-  </si>
-  <si>
-    <t>Zeitrückmeldung stornieren</t>
-  </si>
-  <si>
-    <t>HANA015201</t>
-  </si>
-  <si>
-    <t>Rahmenvertragsmanagement</t>
-  </si>
-  <si>
-    <t>HANA0421</t>
-  </si>
-  <si>
-    <t>Zeitrückmeldung auswerten</t>
-  </si>
-  <si>
-    <t>HANA015202</t>
-  </si>
-  <si>
-    <t>Anfrage / Angebot</t>
-  </si>
-  <si>
-    <t>HANA0430</t>
-  </si>
-  <si>
-    <t>Vorgangsbeplanung vornehmen</t>
-  </si>
-  <si>
-    <t>HANA016301</t>
-  </si>
-  <si>
-    <t>Vergabe (Veröffentlichung)</t>
-  </si>
-  <si>
-    <t>HANA0440</t>
-  </si>
-  <si>
-    <t>Auftragsfreigabe und Budgetierung durchführen</t>
-  </si>
-  <si>
-    <t>HANA016302</t>
-  </si>
-  <si>
-    <t>Bestellung</t>
-  </si>
-  <si>
-    <t>HANA0450</t>
-  </si>
-  <si>
-    <t>Disposition vornehmen</t>
-  </si>
-  <si>
-    <t>HANA016303</t>
-  </si>
-  <si>
-    <t>Leistungs-/Lieferüberwachung</t>
-  </si>
-  <si>
-    <t>HANA0460</t>
-  </si>
-  <si>
-    <t>Freischaltabwicklung durchführen</t>
-  </si>
-  <si>
-    <t>HANA016304</t>
-  </si>
-  <si>
-    <t>Lieferantenbeurteilung</t>
-  </si>
-  <si>
-    <t>HANA0470</t>
-  </si>
-  <si>
-    <t>Auftrag durchführen und (teil)rückmelden</t>
-  </si>
-  <si>
-    <t>HANA016305</t>
-  </si>
-  <si>
-    <t>Leistungs-/Liefererfassung</t>
-  </si>
-  <si>
-    <t>HANA0480</t>
-  </si>
-  <si>
-    <t>technischen Abschluss durchführen</t>
-  </si>
-  <si>
-    <t>HANA016306</t>
-  </si>
-  <si>
-    <t>Logistik Rechnungsprüfung</t>
-  </si>
-  <si>
-    <t>HANA0490</t>
-  </si>
-  <si>
-    <t>kaufmännischen Abschluss durchführen</t>
-  </si>
-  <si>
-    <t>HANA016307</t>
-  </si>
-  <si>
-    <t>Lagerdisposition</t>
-  </si>
-  <si>
-    <t>HANA0510</t>
-  </si>
-  <si>
-    <t>Rahmenvertrag anlegen</t>
-  </si>
-  <si>
-    <t>HANA042101</t>
-  </si>
-  <si>
-    <t>Bestandsführung</t>
-  </si>
-  <si>
-    <t>HANA0520</t>
-  </si>
-  <si>
-    <t>Rahmenvertrag ändern</t>
-  </si>
-  <si>
-    <t>HANA042102</t>
-  </si>
-  <si>
-    <t>Inventur Vorratsvermögen</t>
-  </si>
-  <si>
-    <t>HANA0530</t>
-  </si>
-  <si>
-    <t>Rahmenverträge managen</t>
-  </si>
-  <si>
-    <t>HANA042103</t>
-  </si>
-  <si>
-    <t>Bewertung Lagermaterial</t>
-  </si>
-  <si>
-    <t>HANA0540</t>
-  </si>
-  <si>
-    <t>Nachtragsmanagement</t>
-  </si>
-  <si>
-    <t>HANA045001</t>
-  </si>
-  <si>
-    <t>Lagerinterne Prozesse</t>
-  </si>
-  <si>
-    <t>HANA0550</t>
-  </si>
-  <si>
-    <t>Disposition Bankkonten</t>
-  </si>
-  <si>
-    <t>HANA066001</t>
-  </si>
-  <si>
-    <t>Cashmanagement</t>
-  </si>
-  <si>
-    <t>Liquiditätsplanung</t>
-  </si>
-  <si>
-    <t>HANA0610</t>
-  </si>
-  <si>
-    <t>kurzfristige Geldaufnahme / -anlage</t>
-  </si>
-  <si>
-    <t>HANA066002</t>
-  </si>
-  <si>
-    <t>Fremdfinanzierung</t>
-  </si>
-  <si>
-    <t>HANA0620</t>
-  </si>
-  <si>
-    <t>maschineller Zahlungsverkehr</t>
-  </si>
-  <si>
-    <t>HANA067001</t>
-  </si>
-  <si>
-    <t>Zahlungsverkehr</t>
-  </si>
-  <si>
-    <t>Konzernfinanzierung</t>
-  </si>
-  <si>
-    <t>HANA0630</t>
-  </si>
-  <si>
-    <t>manueller Zahlungsverkehr</t>
-  </si>
-  <si>
-    <t>HANA067002</t>
-  </si>
-  <si>
-    <t>Fördermittel</t>
-  </si>
-  <si>
-    <t>HANA0640</t>
-  </si>
-  <si>
-    <t>barer Zahlungsverkehr</t>
-  </si>
-  <si>
-    <t>HANA067003</t>
-  </si>
-  <si>
-    <t>Finanzierung verwalten</t>
-  </si>
-  <si>
-    <t>HANA0650</t>
-  </si>
-  <si>
-    <t>Rechnung erfassen</t>
-  </si>
-  <si>
-    <t>HANA071001</t>
-  </si>
-  <si>
-    <t>Bearbeitung und Prüfung von Eingangsrechnungen</t>
-  </si>
-  <si>
-    <t>HANA0660</t>
-  </si>
-  <si>
-    <t>Rechnung bearbeiten</t>
-  </si>
-  <si>
-    <t>HANA071002</t>
-  </si>
-  <si>
-    <t>HANA0670</t>
-  </si>
-  <si>
-    <t>Rechnung prüfen</t>
-  </si>
-  <si>
-    <t>HANA071003</t>
-  </si>
-  <si>
-    <t>HANA0710</t>
-  </si>
-  <si>
-    <t>Rechnung buchen</t>
-  </si>
-  <si>
-    <t>HANA071004</t>
-  </si>
-  <si>
-    <t>Kontokorrent pflegen</t>
-  </si>
-  <si>
-    <t>HANA0720</t>
-  </si>
-  <si>
-    <t>Gebühr vorkalkulieren</t>
-  </si>
-  <si>
-    <t>HANA081001</t>
-  </si>
-  <si>
-    <t>Kalkulation</t>
-  </si>
-  <si>
-    <t>Mahnungen bearbeiten</t>
-  </si>
-  <si>
-    <t>HANA0730</t>
-  </si>
-  <si>
-    <t>Gebühr nachkalkulieren</t>
-  </si>
-  <si>
-    <t>HANA081002</t>
-  </si>
-  <si>
-    <t>HANA0810</t>
-  </si>
-  <si>
-    <t>Nebenleistungen kalkulieren</t>
-  </si>
-  <si>
-    <t>HANA081003</t>
-  </si>
-  <si>
-    <t>Planung und Prognose durchführen</t>
-  </si>
-  <si>
-    <t>HANA0820</t>
-  </si>
-  <si>
-    <t>innerbetriebliche Leistungen kalkulieren</t>
-  </si>
-  <si>
-    <t>HANA081004</t>
-  </si>
-  <si>
-    <t>Monats- und Jahresabschluss</t>
-  </si>
-  <si>
-    <t>HANA0830</t>
-  </si>
-  <si>
-    <t>Erfolgsplanung</t>
-  </si>
-  <si>
-    <t>HANA082001</t>
-  </si>
-  <si>
-    <t>Steuern deklarieren</t>
-  </si>
-  <si>
-    <t>HANA0840</t>
-  </si>
-  <si>
-    <t>HANA091001</t>
-  </si>
-  <si>
-    <t>Konzernkonsolidierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablesedurchführung, </t>
-  </si>
-  <si>
-    <t>HANA091002</t>
-  </si>
-  <si>
-    <t>Beteiligungen</t>
-  </si>
-  <si>
-    <t>HANA0850</t>
-  </si>
-  <si>
-    <t>HANA091003</t>
-  </si>
-  <si>
-    <t>Berichtswesen</t>
-  </si>
-  <si>
-    <t>HANA0860</t>
-  </si>
-  <si>
-    <t>HANA092001</t>
   </si>
   <si>
     <t>Transaktionen</t>
@@ -2646,205 +1728,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2967,21 +1851,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A996CA7E-ADD3-449F-8371-AAB7B56B871A}" name="Teilprojekte" displayName="Teilprojekte" ref="E1:H13" totalsRowShown="0">
-  <autoFilter ref="E1:H13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A996CA7E-ADD3-449F-8371-AAB7B56B871A}" name="Teilprojekte" displayName="Teilprojekte" ref="E1:H2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="E1:H2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teilprojekte"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kürzel"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Anfangszeile" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Endzeile" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Anfangszeile" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Endzeile" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Prioritäten" displayName="Prioritäten" ref="E1:E4" totalsRowShown="0">
-  <autoFilter ref="E1:E4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Prioritäten" displayName="Prioritäten" ref="E1:E2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="E1:E2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Prioritäten"/>
   </tableColumns>
@@ -2990,8 +1874,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Vorhanden?" displayName="Vorhanden?" ref="G1:G3" totalsRowShown="0">
-  <autoFilter ref="G1:G3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Vorhanden?" displayName="Vorhanden?" ref="G1:G2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="G1:G2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Vorhanden?"/>
   </tableColumns>
@@ -3000,8 +1884,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Outputs" displayName="Outputs" ref="I1:I6" totalsRowShown="0">
-  <autoFilter ref="I1:I6" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Outputs" displayName="Outputs" ref="I1:I2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="I1:I2" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Outputs"/>
   </tableColumns>
@@ -3010,8 +1894,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Interfaces" displayName="Interfaces" ref="K1:K5" totalsRowShown="0">
-  <autoFilter ref="K1:K5" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Interfaces" displayName="Interfaces" ref="K1:K2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="K1:K2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Interfaces"/>
   </tableColumns>
@@ -3020,8 +1904,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BTT" displayName="BTT" ref="A2:AT530" totalsRowShown="0" headerRowDxfId="38" dataCellStyle="Standard">
-  <autoFilter ref="A2:AT530" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="BTT" displayName="BTT" ref="A2:AT3" insertRow="1" totalsRowShown="0" headerRowDxfId="10" dataCellStyle="Standard">
+  <autoFilter ref="A2:AT3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Lfd Nr._x000a_(automatisch)" dataCellStyle="Standard"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Hauptprozess_x000a_(Pflichtauswahl)" dataCellStyle="Standard"/>
@@ -3075,8 +1959,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Hauptprozesse" displayName="Hauptprozesse" ref="A1:D84" totalsRowShown="0">
-  <autoFilter ref="A1:D84" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Hauptprozesse" displayName="Hauptprozesse" ref="A1:D2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="HL"/>
@@ -3090,7 +1974,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hauptprozess"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ARIS-ID"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Verantwortliches TP"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="verwendet in BTT" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="verwendet in BTT" dataDxfId="9">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
 (Pflichtauswahl)],1,FALSE)),"nein","ja")</calculatedColumnFormula>
     </tableColumn>
@@ -3100,8 +1984,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="BPML" displayName="BPML" ref="F1:J102" totalsRowShown="0">
-  <autoFilter ref="F1:J102" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="BPML" displayName="BPML" ref="F1:J2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="F1:J2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:J67">
     <sortCondition ref="G1:G67"/>
   </sortState>
@@ -3109,10 +1993,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Subprozess"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ARIS-ID"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Zugeordneter Hauptprozess"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="TP aus Hauptprozess" dataDxfId="36">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="TP aus Hauptprozess" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="verwendet in BTT" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="verwendet in BTT" dataDxfId="7">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
 (optionale Auswahl)],1,FALSE)),"nein","ja")</calculatedColumnFormula>
     </tableColumn>
@@ -3122,8 +2006,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Transaktionen" displayName="Transaktionen" ref="A1:G4278" totalsRowShown="0">
-  <autoFilter ref="A1:G4278" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Transaktionen" displayName="Transaktionen" ref="A1:G2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="ZIK01"/>
@@ -3155,9 +2039,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Transaktionen"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Langtext"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Modul"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Anzahl Nutzungen (2022+2023)" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Anzahl Nutzungen (2022+2023)" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Tasktyp"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="verwendet in BTT" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="verwendet in BTT" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Bemerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3165,12 +2049,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Formulare" displayName="Formulare" ref="A1:C201" totalsRowShown="0">
-  <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Formulare" displayName="Formulare" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Formularbezeichnung"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Formularname (technisch)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="verwendet in BTT" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="verwendet in BTT" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3187,38 +2071,38 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Namespace"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SenderServiceInterface"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Receiver"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Wo ist Mandant 100" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="erzeugter Name" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Wo ist Mandant 100" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="erzeugter Name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Schnittstelle_Klarname" displayName="Schnittstelle_Klarname" ref="H1:J113" totalsRowShown="0">
-  <autoFilter ref="H1:J113" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Schnittstelle_Klarname" displayName="Schnittstelle_Klarname" ref="H1:J2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="H1:J2" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:J107">
     <sortCondition ref="H1:H107"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Schnittstelle"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Beschreibung System"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="verwendet in BTT" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="verwendet in BTT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Module" displayName="Module" ref="A1:C51" totalsRowShown="0">
-  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Module" displayName="Module" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Module"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Bezeichnung"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Modul in Transaktionen" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Modul in Transaktionen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3541,7 +2425,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3553,20 +2437,20 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14"/>
       <c r="E1" t="s">
-        <v>390</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3575,7 +2459,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="12"/>
     </row>
@@ -3639,10 +2523,10 @@
   <dimension ref="A1:AT351"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,13 +2578,13 @@
   <sheetData>
     <row r="1" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
@@ -3725,7 +2609,7 @@
       <c r="Z1" s="17"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -3736,7 +2620,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
       <c r="AK1" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
@@ -3750,142 +2634,142 @@
     </row>
     <row r="2" spans="1:46" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AD2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AE2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AK2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AL2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AM2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AN2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AO2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="297" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3899,37 +2783,37 @@
     <mergeCell ref="AK1:AT1"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B530" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hauptprozess</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C530" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Subprozess</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I530 AE274:AE291 AF308:AF309 AF322:AF325 AF327:AF330" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 AE274:AE291 AF308:AF309 AF322:AF325 AF327:AF330" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Transaktion</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R530" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Schnittstelle</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H530" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Modul</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z530" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>Priorität</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X530 O3:O530 AA3:AB530 AG3:AJ530" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3 O3 AA3:AB3 AG3:AJ3" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>Vorhanden</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T530" xr:uid="{00000000-0002-0000-0100-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>Output</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U530" xr:uid="{00000000-0002-0000-0100-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>Formular</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD530" xr:uid="{00000000-0002-0000-0100-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>Interface</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F530" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>Teilprojekt_Kürzel</formula1>
     </dataValidation>
   </dataValidations>
@@ -3945,10 +2829,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F77" sqref="F77:J102"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,2583 +2847,33 @@
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J4" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J5" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J6" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J7" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J8" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J9" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J10" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J11" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J12" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J13" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J14" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J15" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J16" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J17" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J18" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J19" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J20" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J21" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J22" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F23" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J23" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J24" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J25" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J26" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J27" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F28" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J28" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J29" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J30" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F31" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J31" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F32" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>PS/IM</v>
-      </c>
-      <c r="J32" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F33" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J33" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J34" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J35" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F36" t="s">
-        <v>207</v>
-      </c>
-      <c r="G36" t="s">
-        <v>208</v>
-      </c>
-      <c r="H36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J36" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H37" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J37" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F38" t="s">
-        <v>214</v>
-      </c>
-      <c r="G38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J38" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F39" t="s">
-        <v>218</v>
-      </c>
-      <c r="G39" t="s">
-        <v>219</v>
-      </c>
-      <c r="H39" t="s">
-        <v>123</v>
-      </c>
-      <c r="I39" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J39" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F40" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" t="s">
-        <v>222</v>
-      </c>
-      <c r="H40" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J40" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J41" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F42" t="s">
-        <v>228</v>
-      </c>
-      <c r="G42" t="s">
-        <v>229</v>
-      </c>
-      <c r="H42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J42" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" t="s">
-        <v>233</v>
-      </c>
-      <c r="H43" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J43" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F44" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J44" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F45" t="s">
-        <v>240</v>
-      </c>
-      <c r="G45" t="s">
-        <v>241</v>
-      </c>
-      <c r="H45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J45" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F46" t="s">
-        <v>244</v>
-      </c>
-      <c r="G46" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" t="s">
-        <v>131</v>
-      </c>
-      <c r="I46" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J46" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>246</v>
-      </c>
-      <c r="B47" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F47" t="s">
-        <v>248</v>
-      </c>
-      <c r="G47" t="s">
-        <v>249</v>
-      </c>
-      <c r="H47" t="s">
-        <v>131</v>
-      </c>
-      <c r="I47" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J47" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F48" t="s">
-        <v>252</v>
-      </c>
-      <c r="G48" t="s">
-        <v>253</v>
-      </c>
-      <c r="H48" t="s">
-        <v>143</v>
-      </c>
-      <c r="I48" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J48" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>254</v>
-      </c>
-      <c r="B49" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F49" t="s">
-        <v>256</v>
-      </c>
-      <c r="G49" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" t="s">
-        <v>143</v>
-      </c>
-      <c r="I49" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J49" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>258</v>
-      </c>
-      <c r="B50" t="s">
-        <v>259</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F50" t="s">
-        <v>260</v>
-      </c>
-      <c r="G50" t="s">
-        <v>261</v>
-      </c>
-      <c r="H50" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J50" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F51" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" t="s">
-        <v>265</v>
-      </c>
-      <c r="H51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J51" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>266</v>
-      </c>
-      <c r="B52" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F52" t="s">
-        <v>268</v>
-      </c>
-      <c r="G52" t="s">
-        <v>269</v>
-      </c>
-      <c r="H52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I52" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J52" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" t="s">
-        <v>271</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F53" t="s">
-        <v>272</v>
-      </c>
-      <c r="G53" t="s">
-        <v>273</v>
-      </c>
-      <c r="H53" t="s">
-        <v>143</v>
-      </c>
-      <c r="I53" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J53" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F54" t="s">
-        <v>276</v>
-      </c>
-      <c r="G54" t="s">
-        <v>277</v>
-      </c>
-      <c r="H54" t="s">
-        <v>143</v>
-      </c>
-      <c r="I54" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>IH</v>
-      </c>
-      <c r="J54" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>278</v>
-      </c>
-      <c r="B55" t="s">
-        <v>279</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F55" t="s">
-        <v>280</v>
-      </c>
-      <c r="G55" t="s">
-        <v>281</v>
-      </c>
-      <c r="H55" t="s">
-        <v>246</v>
-      </c>
-      <c r="I55" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>BLQ</v>
-      </c>
-      <c r="J55" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F56" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" t="s">
-        <v>285</v>
-      </c>
-      <c r="H56" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>BLQ</v>
-      </c>
-      <c r="J56" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>286</v>
-      </c>
-      <c r="B57" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F57" t="s">
-        <v>288</v>
-      </c>
-      <c r="G57" t="s">
-        <v>289</v>
-      </c>
-      <c r="H57" t="s">
-        <v>246</v>
-      </c>
-      <c r="I57" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>BLQ</v>
-      </c>
-      <c r="J57" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>290</v>
-      </c>
-      <c r="B58" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F58" t="s">
-        <v>292</v>
-      </c>
-      <c r="G58" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" t="s">
-        <v>258</v>
-      </c>
-      <c r="I58" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>BLQ</v>
-      </c>
-      <c r="J58" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>294</v>
-      </c>
-      <c r="B59" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F59" t="s">
-        <v>296</v>
-      </c>
-      <c r="G59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H59" t="s">
-        <v>298</v>
-      </c>
-      <c r="I59" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J59" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F60" t="s">
-        <v>301</v>
-      </c>
-      <c r="G60" t="s">
-        <v>302</v>
-      </c>
-      <c r="H60" t="s">
-        <v>298</v>
-      </c>
-      <c r="I60" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J60" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>303</v>
-      </c>
-      <c r="B61" t="s">
-        <v>304</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F61" t="s">
-        <v>305</v>
-      </c>
-      <c r="G61" t="s">
-        <v>306</v>
-      </c>
-      <c r="H61" t="s">
-        <v>307</v>
-      </c>
-      <c r="I61" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J61" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>308</v>
-      </c>
-      <c r="B62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G62" t="s">
-        <v>311</v>
-      </c>
-      <c r="H62" t="s">
-        <v>307</v>
-      </c>
-      <c r="I62" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J62" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>312</v>
-      </c>
-      <c r="B63" t="s">
-        <v>313</v>
-      </c>
-      <c r="C63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F63" t="s">
-        <v>314</v>
-      </c>
-      <c r="G63" t="s">
-        <v>315</v>
-      </c>
-      <c r="H63" t="s">
-        <v>307</v>
-      </c>
-      <c r="I63" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J63" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>316</v>
-      </c>
-      <c r="B64" t="s">
-        <v>317</v>
-      </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F64" t="s">
-        <v>318</v>
-      </c>
-      <c r="G64" t="s">
-        <v>319</v>
-      </c>
-      <c r="H64" t="s">
-        <v>320</v>
-      </c>
-      <c r="I64" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J64" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B65" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F65" t="s">
-        <v>322</v>
-      </c>
-      <c r="G65" t="s">
-        <v>323</v>
-      </c>
-      <c r="H65" t="s">
-        <v>320</v>
-      </c>
-      <c r="I65" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J65" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>307</v>
-      </c>
-      <c r="B66" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F66" t="s">
-        <v>325</v>
-      </c>
-      <c r="G66" t="s">
-        <v>326</v>
-      </c>
-      <c r="H66" t="s">
-        <v>320</v>
-      </c>
-      <c r="I66" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J66" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>320</v>
-      </c>
-      <c r="B67" t="s">
-        <v>327</v>
-      </c>
-      <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F67" t="s">
-        <v>328</v>
-      </c>
-      <c r="G67" t="s">
-        <v>329</v>
-      </c>
-      <c r="H67" t="s">
-        <v>320</v>
-      </c>
-      <c r="I67" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J67" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>330</v>
-      </c>
-      <c r="B68" t="s">
-        <v>331</v>
-      </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F68" t="s">
-        <v>332</v>
-      </c>
-      <c r="G68" t="s">
-        <v>333</v>
-      </c>
-      <c r="H68" t="s">
-        <v>334</v>
-      </c>
-      <c r="I68" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J68" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>335</v>
-      </c>
-      <c r="B69" t="s">
-        <v>336</v>
-      </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F69" t="s">
-        <v>337</v>
-      </c>
-      <c r="G69" t="s">
-        <v>338</v>
-      </c>
-      <c r="H69" t="s">
-        <v>334</v>
-      </c>
-      <c r="I69" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J69" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>334</v>
-      </c>
-      <c r="B70" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F70" t="s">
-        <v>340</v>
-      </c>
-      <c r="G70" t="s">
-        <v>341</v>
-      </c>
-      <c r="H70" t="s">
-        <v>334</v>
-      </c>
-      <c r="I70" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J70" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F71" t="s">
-        <v>344</v>
-      </c>
-      <c r="G71" t="s">
-        <v>345</v>
-      </c>
-      <c r="H71" t="s">
-        <v>334</v>
-      </c>
-      <c r="I71" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J71" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" t="s">
-        <v>347</v>
-      </c>
-      <c r="C72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F72" t="s">
-        <v>348</v>
-      </c>
-      <c r="G72" t="s">
-        <v>349</v>
-      </c>
-      <c r="H72" t="s">
-        <v>342</v>
-      </c>
-      <c r="I72" t="str">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>FI</v>
-      </c>
-      <c r="J72" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73" t="s">
-        <v>351</v>
-      </c>
-      <c r="C73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
-      </c>
-      <c r="G73" t="s">
-        <v>352</v>
-      </c>
-      <c r="H73" t="s">
-        <v>61</v>
-      </c>
-      <c r="I73" t="e">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>353</v>
-      </c>
-      <c r="B74" t="s">
-        <v>351</v>
-      </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F74" t="s">
-        <v>354</v>
-      </c>
-      <c r="G74" t="s">
-        <v>355</v>
-      </c>
-      <c r="H74" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" t="e">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B75" t="s">
-        <v>357</v>
-      </c>
-      <c r="C75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" t="s">
-        <v>358</v>
-      </c>
-      <c r="H75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75" t="e">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>359</v>
-      </c>
-      <c r="B76" t="s">
-        <v>360</v>
-      </c>
-      <c r="C76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" t="str">
-        <f>IF(ISERROR(VLOOKUP(Hauptprozesse[[#This Row],[Hauptprozess]],BTT[Hauptprozess
-(Pflichtauswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-      <c r="G76" t="s">
-        <v>361</v>
-      </c>
-      <c r="H76" t="s">
-        <v>55</v>
-      </c>
-      <c r="I76" t="e">
-        <f>VLOOKUP(BPML[[#This Row],[Zugeordneter Hauptprozess]],Hauptprozesse[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" t="str">
-        <f>IF(ISERROR(VLOOKUP(BPML[[#This Row],[Subprozess]],BTT[Subprozess
-(optionale Auswahl)],1,FALSE)),"nein","ja")</f>
-        <v>nein</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6558,7 +2892,7 @@
   <dimension ref="A1:G4278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6572,25 +2906,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>367</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -19426,7 +15760,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4278" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Modul</formula1>
     </dataValidation>
   </dataValidations>
@@ -19444,7 +15778,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C201"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19456,13 +15790,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -19480,7 +15814,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19499,31 +15833,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>375</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>376</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -19542,7 +15876,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19557,25 +15891,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>384</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -19595,15 +15929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
@@ -19618,7 +15943,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C17858E2359B24DBC2C956CBC58571A" ma:contentTypeVersion="23" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2500c3fdc20045965f25a0a7c11fd3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3d735070-d042-4b9b-adb1-ed729648994d" xmlns:ns3="079a195e-b63e-432e-9525-85ffc651ce0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b8bdc2aec7392572213476c7d3400a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19909,15 +16234,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19928,7 +16254,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3B6455-98BE-4DD6-ACF3-BBC2A457E6E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19946,4 +16272,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BTT_Template.xlsx
+++ b/BTT_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamueller\PycharmProjects\btt_concat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64002B5C-7864-4A6A-9A3F-5C4B9E725179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55419EC-3A67-4408-AE07-4B04E0F1697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67320" yWindow="4770" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="8" r:id="rId1"/>
@@ -21,49 +21,6 @@
     <sheet name="Schnittstellen" sheetId="5" r:id="rId6"/>
     <sheet name="Datengrundlage adesso" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="aktives_Teilprojekt" localSheetId="0">Übersicht!$A$1</definedName>
-    <definedName name="aktives_Teilprojekt">#REF!</definedName>
-    <definedName name="anderes_TP" localSheetId="0">Übersicht!$A$7</definedName>
-    <definedName name="anderes_TP">#REF!</definedName>
-    <definedName name="ckö">[1]!Module[Module]</definedName>
-    <definedName name="falscher_Subprozess" localSheetId="0">Übersicht!$A$6</definedName>
-    <definedName name="falscher_Subprozess">#REF!</definedName>
-    <definedName name="Formular" localSheetId="0">[2]!Formulare[Formularbezeichnung]</definedName>
-    <definedName name="Formular">Formulare[Formularbezeichnung]</definedName>
-    <definedName name="Hauptprozess" localSheetId="0">[2]!Hauptprozesse[Hauptprozess]</definedName>
-    <definedName name="Hauptprozess">Hauptprozesse[Hauptprozess]</definedName>
-    <definedName name="Interface" localSheetId="0">[2]!Interfaces[Interfaces]</definedName>
-    <definedName name="Interface">Interfaces[Interfaces]</definedName>
-    <definedName name="leeres_Pflichtfeld" localSheetId="0">Übersicht!$A$5</definedName>
-    <definedName name="leeres_Pflichtfeld">#REF!</definedName>
-    <definedName name="leeres_Pflichtfeld_Discover" localSheetId="0">Übersicht!$A$5</definedName>
-    <definedName name="leeres_Pflichtfeld_Discover">#REF!</definedName>
-    <definedName name="leeres_Pflichtfeld_Prepare" localSheetId="0">Übersicht!$A$12</definedName>
-    <definedName name="leeres_Pflichtfeld_Prepare">#REF!</definedName>
-    <definedName name="Modul" localSheetId="0">[2]!Module[Module]</definedName>
-    <definedName name="Modul">Module[Module]</definedName>
-    <definedName name="Output" localSheetId="0">[2]!Outputs[Outputs]</definedName>
-    <definedName name="Output">Outputs[Outputs]</definedName>
-    <definedName name="Priorität" localSheetId="0">[2]!Prioritäten[Prioritäten]</definedName>
-    <definedName name="Priorität">Prioritäten[Prioritäten]</definedName>
-    <definedName name="Schnittstelle" localSheetId="0">[2]!Schnittstelle_Klarname[Schnittstelle]</definedName>
-    <definedName name="Schnittstelle">Schnittstelle_Klarname[Schnittstelle]</definedName>
-    <definedName name="Subprozess" localSheetId="0">[2]!BPML[Subprozess]</definedName>
-    <definedName name="Subprozess">BPML[Subprozess]</definedName>
-    <definedName name="Teilprojekt_Kürzel" localSheetId="0">Teilprojekte[Kürzel]</definedName>
-    <definedName name="Teilprojekt_Kürzel">#REF!</definedName>
-    <definedName name="Teilprojekt_lang" localSheetId="0">Teilprojekte[Teilprojekte]</definedName>
-    <definedName name="Teilprojekt_lang">#REF!</definedName>
-    <definedName name="Transaktion" localSheetId="0">[2]!Transaktionen[Transaktionen]</definedName>
-    <definedName name="Transaktion">Transaktionen[Transaktionen]</definedName>
-    <definedName name="Vorhanden" localSheetId="0">[2]!Vorhanden?[Vorhanden?]</definedName>
-    <definedName name="Vorhanden">Vorhanden?[Vorhanden?]</definedName>
-  </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1789,67 +1746,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Übersicht"/>
-      <sheetName val="BTT"/>
-      <sheetName val="BPML"/>
-      <sheetName val="Transaktionen"/>
-      <sheetName val="Tabelle1"/>
-      <sheetName val="Quercheck Transaktionen"/>
-      <sheetName val="Formulare"/>
-      <sheetName val="Schnittstellen"/>
-      <sheetName val="Datengrundlage adesso"/>
-      <sheetName val="BTT_Master_konsolidiert_2024-01"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Übersicht"/>
-      <sheetName val="BTT"/>
-      <sheetName val="BPML"/>
-      <sheetName val="Transaktionen"/>
-      <sheetName val="Quercheck Transaktionen"/>
-      <sheetName val="Formulare"/>
-      <sheetName val="Schnittstellen"/>
-      <sheetName val="Datengrundlage adesso"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A996CA7E-ADD3-449F-8371-AAB7B56B871A}" name="Teilprojekte" displayName="Teilprojekte" ref="E1:H2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="E1:H2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
@@ -2424,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E342597-281F-452D-8331-F7EAFBB9CD2B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,7 +2788,7 @@
   <dimension ref="A1:G4278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15875,8 +15771,8 @@
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BTT_Template.xlsx
+++ b/BTT_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamueller\PycharmProjects\btt_concat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55419EC-3A67-4408-AE07-4B04E0F1697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD63D37-01BB-4760-8D34-1F4E87D4FD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67320" yWindow="4770" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5595" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="8" r:id="rId1"/>
@@ -1957,8 +1957,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Schnittstellen_technisch" displayName="Schnittstellen_technisch" ref="A1:F141" totalsRowShown="0">
-  <autoFilter ref="A1:F141" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Schnittstellen_technisch" displayName="Schnittstellen_technisch" ref="A1:F2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F176">
     <sortCondition descending="1" ref="E1:E176"/>
   </sortState>
@@ -2320,7 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E342597-281F-452D-8331-F7EAFBB9CD2B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -2727,8 +2727,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15709,19 +15709,19 @@
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -15772,7 +15772,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15825,21 +15825,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </DokumenteTeilen_x0020__x002d__x0020_Berechtigungen>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C17858E2359B24DBC2C956CBC58571A" ma:contentTypeVersion="23" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2500c3fdc20045965f25a0a7c11fd3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3d735070-d042-4b9b-adb1-ed729648994d" xmlns:ns3="079a195e-b63e-432e-9525-85ffc651ce0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b8bdc2aec7392572213476c7d3400a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16130,6 +16115,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </DokumenteTeilen_x0020__x002d__x0020_Berechtigungen>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16140,17 +16140,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d735070-d042-4b9b-adb1-ed729648994d"/>
-    <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3B6455-98BE-4DD6-ACF3-BBC2A457E6E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16170,6 +16159,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d735070-d042-4b9b-adb1-ed729648994d"/>
+    <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
   <ds:schemaRefs>

--- a/BTT_Template.xlsx
+++ b/BTT_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamueller\PycharmProjects\btt_concat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD63D37-01BB-4760-8D34-1F4E87D4FD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8AC7A-7D54-4CBD-910B-8C05DFD25E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5595" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5595" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Schnittstellen" sheetId="5" r:id="rId6"/>
     <sheet name="Datengrundlage adesso" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="aktives_Teilprojekt">Übersicht!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -533,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Qualitätssicherung</t>
   </si>
@@ -1415,12 +1418,6 @@
     <t>Interfaces</t>
   </si>
   <si>
-    <t>Business Transformation Tracker</t>
-  </si>
-  <si>
-    <t>Finanzen</t>
-  </si>
-  <si>
     <t>Endzeile</t>
   </si>
   <si>
@@ -1431,6 +1428,9 @@
   </si>
   <si>
     <t>Teilprojekte</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2321,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,20 +2333,20 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" s="14"/>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2418,11 +2418,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AT351"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,8 +2473,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>79</v>
+      <c r="A1" s="17" t="str">
+        <f>"Business Transformation Tracker: "&amp;aktives_Teilprojekt</f>
+        <v>Business Transformation Tracker: Master</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -15709,7 +15710,7 @@
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -16116,6 +16117,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
@@ -16128,15 +16138,6 @@
     <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16160,6 +16161,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16168,12 +16177,4 @@
     <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BTT_Template.xlsx
+++ b/BTT_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamueller\PycharmProjects\btt_concat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8AC7A-7D54-4CBD-910B-8C05DFD25E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE22C4-A6CA-40A4-B2FE-FA31E278A4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5595" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5595" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="8" r:id="rId1"/>
@@ -2320,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E342597-281F-452D-8331-F7EAFBB9CD2B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,11 +2400,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>Teilprojekt_lang</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2418,7 +2413,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AT351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -15826,6 +15821,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </DokumenteTeilen_x0020__x002d__x0020_Berechtigungen>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C17858E2359B24DBC2C956CBC58571A" ma:contentTypeVersion="23" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2500c3fdc20045965f25a0a7c11fd3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3d735070-d042-4b9b-adb1-ed729648994d" xmlns:ns3="079a195e-b63e-432e-9525-85ffc651ce0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b8bdc2aec7392572213476c7d3400a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16116,31 +16135,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d735070-d042-4b9b-adb1-ed729648994d"/>
+    <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumenteTeilen_x0020__x002d__x0020_Berechtigungen xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </DokumenteTeilen_x0020__x002d__x0020_Berechtigungen>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d735070-d042-4b9b-adb1-ed729648994d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="079a195e-b63e-432e-9525-85ffc651ce0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3B6455-98BE-4DD6-ACF3-BBC2A457E6E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16158,23 +16172,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D06BF-D986-40C6-9747-40ACA7005104}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8939E25B-C81C-45B1-8008-CF142999BF4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d735070-d042-4b9b-adb1-ed729648994d"/>
-    <ds:schemaRef ds:uri="079a195e-b63e-432e-9525-85ffc651ce0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>